--- a/Sep19/all_countries/Tables/income-M.xlsx
+++ b/Sep19/all_countries/Tables/income-M.xlsx
@@ -489,16 +489,16 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.2150956608568527</v>
+        <v>0.2149984677061318</v>
       </c>
       <c r="C2">
-        <v>1007534436142</v>
+        <v>1010352780318</v>
       </c>
       <c r="D2">
-        <v>44453016000000</v>
+        <v>44983624000000</v>
       </c>
       <c r="E2">
-        <v>1072622167.25</v>
+        <v>1096199438.25</v>
       </c>
       <c r="F2">
         <v>14115446032323.57</v>
@@ -507,28 +507,28 @@
         <v>1156444632258.877</v>
       </c>
       <c r="H2">
-        <v>110279740466.0202</v>
+        <v>110204930881.1701</v>
       </c>
       <c r="I2">
-        <v>87507720554.39484</v>
+        <v>88182460025.13239</v>
       </c>
       <c r="J2">
-        <v>120372739711.7853</v>
+        <v>120044435508.3944</v>
       </c>
       <c r="K2">
-        <v>105074314427.6624</v>
+        <v>105249563280.5307</v>
       </c>
       <c r="L2">
-        <v>14817362503.80325</v>
+        <v>14807310968.20116</v>
       </c>
       <c r="M2">
-        <v>11757677446.97862</v>
+        <v>11848336522.62836</v>
       </c>
       <c r="N2">
-        <v>74086812519.01587</v>
+        <v>74036554841.00542</v>
       </c>
       <c r="O2">
-        <v>58788387234.89295</v>
+        <v>59241682613.14164</v>
       </c>
     </row>
     <row r="3" spans="1:15">
